--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\taskmanage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1403BCB3-2D0D-4285-90D0-9CE36BB79BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D5B0A9-5127-434B-AECB-73789D1028FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="3240" windowWidth="21600" windowHeight="12645" activeTab="3" xr2:uid="{CF4BF84E-3EB0-4DBD-8D50-3C88BC6C6D79}"/>
+    <workbookView xWindow="4230" yWindow="3150" windowWidth="21600" windowHeight="12645" activeTab="3" xr2:uid="{CF4BF84E-3EB0-4DBD-8D50-3C88BC6C6D79}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
   <si>
     <t>TBL_USER</t>
     <phoneticPr fontId="1"/>
@@ -331,6 +331,66 @@
       <t>カンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE USER_TABLE (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID VARCHAR (10) PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PASSWORD VARCHAR (10) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NAME VARCHAR (100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMAIL VARCHAR (100),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROLE INT NOT NULL</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE TBL_GROUP (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID INT AUTO_INCREMENT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DESCRIPTION VARCHAR (250)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE REL_GROUP_USER (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GROUP_ID INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PRIMARY KEY (GROUP_ID, USER_ID),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (GROUP_ID) REFERENCES TBL_GROUP(ID),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOREIGN KEY (USER_ID) REFERENCES TBL_USER(ID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    USER_ID VARCHAR(10),</t>
+  </si>
+  <si>
+    <t>SELECT G.NAME AS GROUP_NAME, U.NAME AS USER_NAME</t>
+  </si>
+  <si>
+    <t>FROM TBL_GROUP G</t>
+  </si>
+  <si>
+    <t>JOIN REL_GROUP_USER GU ON G.ID = GU.GROUP_ID</t>
+  </si>
+  <si>
+    <t>JOIN TBL_USER U ON GU.USER_ID = U.ID;</t>
   </si>
 </sst>
 </file>
@@ -641,137 +701,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,72 +1182,72 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1203,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FE1A14-A223-4A0C-8899-D70AC3A1D67C}">
-  <dimension ref="B1:K16"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1217,236 +1277,271 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="10">
         <v>45658</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="18" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="15"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="15"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>41</v>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1470,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4D68B7-6073-45AA-A7DC-476375B8AB28}">
-  <dimension ref="B1:K8"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1484,164 +1579,189 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="10">
         <v>45672</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="18" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="15"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1662,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59923F61-282C-42D0-84B2-319A1C4219A6}">
-  <dimension ref="B1:K9"/>
+  <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1677,152 +1797,207 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="10">
         <v>45679</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="18" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="37"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\taskmanage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D5B0A9-5127-434B-AECB-73789D1028FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96C5FD-4F59-46D1-B19C-ECFCE28FEE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3150" windowWidth="21600" windowHeight="12645" activeTab="3" xr2:uid="{CF4BF84E-3EB0-4DBD-8D50-3C88BC6C6D79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{CF4BF84E-3EB0-4DBD-8D50-3C88BC6C6D79}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="TBL_USER" sheetId="2" r:id="rId2"/>
     <sheet name="TBL_GROUP" sheetId="3" r:id="rId3"/>
     <sheet name="REL_GROUP_USER" sheetId="4" r:id="rId4"/>
+    <sheet name="TBL_TASK" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="111">
   <si>
     <t>TBL_USER</t>
     <phoneticPr fontId="1"/>
@@ -197,22 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>メール</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ROLE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -289,28 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ユーザー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>グループID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -391,13 +354,245 @@
   </si>
   <si>
     <t>JOIN TBL_USER U ON GU.USER_ID = U.ID;</t>
+  </si>
+  <si>
+    <t>TBL_TASK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>件名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTUSER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー削除に備えて列制約は付けない</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了予定日</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了日</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テイジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象グループ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GROUP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>END_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ削除に備えて列制約は付けない</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eメール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXPECT_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期状態</t>
+    <rPh sb="0" eb="4">
+      <t>ショキジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進行中</t>
+    <rPh sb="0" eb="3">
+      <t>シンコウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中断中</t>
+    <rPh sb="0" eb="2">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,11 +629,34 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -697,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,36 +937,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -758,9 +946,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,59 +964,167 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E2E54E-FF24-423A-B100-F75F54F476D7}">
-  <dimension ref="B1:H5"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1182,21 +1475,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
@@ -1208,12 +1501,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
@@ -1225,12 +1518,12 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
@@ -1242,19 +1535,37 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1265,283 +1576,286 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FE1A14-A223-4A0C-8899-D70AC3A1D67C}">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="1" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="11.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="16"/>
+    <col min="8" max="8" width="18.625" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="37" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="30">
         <v>45658</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="44"/>
-    </row>
-    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="39">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="J6" s="41"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+      <c r="J7" s="41"/>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="J8" s="41"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="39">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="39">
+        <v>5</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="I10" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C11" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C14" s="16">
+        <v>9</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+      <c r="B16" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="16" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1568,199 +1882,202 @@
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="1" max="4" width="9" style="47"/>
+    <col min="5" max="5" width="12.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="47"/>
+    <col min="8" max="8" width="18.625" style="47" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="37" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="60">
         <v>45672</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="44"/>
-    </row>
-    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="K5" s="67"/>
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="68">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="G6" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="68">
         <v>2</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+    </row>
+    <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="68">
         <v>3</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="44"/>
+      <c r="H8" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+      <c r="B12" s="47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="47" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>65</v>
+      <c r="B16" s="47" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1784,220 +2101,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59923F61-282C-42D0-84B2-319A1C4219A6}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="1" max="3" width="9" style="47"/>
+    <col min="4" max="4" width="13.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="47"/>
+    <col min="8" max="8" width="18.625" style="47" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="35" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="37" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="60">
+        <v>45679</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="67"/>
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="68">
+        <v>1</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="10">
-        <v>45679</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="F6" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="68">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="44"/>
-    </row>
-    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C9" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
+      <c r="C12" s="47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C13" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C14" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C15" s="47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C16" s="47" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" s="47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C21" s="47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C22" s="47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C23" s="47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C24" s="47" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2014,4 +2334,431 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EB3F5B-FA9C-4DB5-8A70-08CB26032661}">
+  <dimension ref="B1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="9" style="47"/>
+    <col min="5" max="5" width="13.375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="47" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="60">
+        <v>45684</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="2:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="67"/>
+    </row>
+    <row r="6" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="68">
+        <v>1</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="68">
+        <v>2</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
+    </row>
+    <row r="8" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="68">
+        <v>3</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+    </row>
+    <row r="9" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="68">
+        <v>4</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="68">
+        <v>5</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
+    </row>
+    <row r="11" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="68">
+        <v>6</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+    </row>
+    <row r="12" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="68">
+        <v>7</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="68">
+        <v>8</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="68">
+        <v>9</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D20" s="16">
+        <v>3</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D22" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D25" s="16">
+        <v>2</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D26" s="16">
+        <v>3</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\taskmanage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96C5FD-4F59-46D1-B19C-ECFCE28FEE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5878C753-6B00-4484-B420-F4D5FF770C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{CF4BF84E-3EB0-4DBD-8D50-3C88BC6C6D79}"/>
+    <workbookView xWindow="-28920" yWindow="1785" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{CF4BF84E-3EB0-4DBD-8D50-3C88BC6C6D79}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="128">
   <si>
     <t>TBL_USER</t>
     <phoneticPr fontId="1"/>
@@ -393,36 +393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投稿者</t>
-    <rPh sb="0" eb="3">
-      <t>トウコウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POSTUSER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー削除に備えて列制約は付けない</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ソナ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイヤク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了予定日</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -446,13 +416,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対象グループ</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>状態</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
@@ -464,10 +427,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GROUP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>END_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -487,25 +446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グループ削除に備えて列制約は付けない</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ソナ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイヤク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eメール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -584,6 +524,116 @@
     <t>緊急</t>
     <rPh sb="0" eb="2">
       <t>キンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー削除に備えてFKは設定しない</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ削除に備えてFKは設定しない</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POSTUSER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者ID</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象グループID</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE TBL_TASK (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ID INT PRIMARY KEY AUTO_INCREMENT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SUBJECT VARCHAR(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CONTENT VARCHAR(100),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    POSTUSER_ID VARCHAR(10),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXPECT_DATE DATE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    END_DATE DATE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    STATUS INT,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PRIORITY INT</t>
+  </si>
+  <si>
+    <t>NOT_STARTED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_PROGRESS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUSPENDED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NORMAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HIGH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -915,7 +965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +996,66 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -964,8 +1074,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -976,90 +1089,48 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1075,55 +1146,37 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1484,12 +1537,12 @@
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
@@ -1501,12 +1554,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
@@ -1518,12 +1571,12 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
@@ -1535,12 +1588,12 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
@@ -1552,12 +1605,12 @@
       <c r="D6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1582,279 +1635,279 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="11.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="16"/>
-    <col min="8" max="8" width="18.625" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="16"/>
+    <col min="1" max="4" width="9" style="10"/>
+    <col min="5" max="5" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="18.625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="14">
         <v>45658</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39">
+      <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39">
+      <c r="B8" s="17">
         <v>3</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39">
+      <c r="B9" s="17">
         <v>4</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29" t="s">
+      <c r="F9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="35"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39">
+      <c r="B10" s="17">
         <v>5</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="35"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C12" s="16">
+      <c r="C12" s="10">
         <v>0</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C13" s="16">
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C14" s="16">
+      <c r="C14" s="10">
         <v>9</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1887,196 +1940,196 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="9" style="47"/>
-    <col min="5" max="5" width="12.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="47"/>
-    <col min="8" max="8" width="18.625" style="47" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="47"/>
+    <col min="1" max="4" width="9" style="22"/>
+    <col min="5" max="5" width="12.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="22"/>
+    <col min="8" max="8" width="18.625" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="44" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="25">
         <v>45672</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="46"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="67"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="68">
+      <c r="B6" s="28">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="68">
+      <c r="B7" s="28">
         <v>2</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="68">
+      <c r="B8" s="28">
         <v>3</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="22" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2107,216 +2160,216 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="9" style="47"/>
-    <col min="4" max="4" width="13.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="47"/>
-    <col min="8" max="8" width="18.625" style="47" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="47"/>
+    <col min="1" max="3" width="9" style="22"/>
+    <col min="4" max="4" width="13.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="22"/>
+    <col min="8" max="8" width="18.625" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="44" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="25">
         <v>45679</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="46"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="67"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="68">
+      <c r="B6" s="28">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44" t="s">
+      <c r="F6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="68">
+      <c r="B7" s="28">
         <v>2</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="22" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2338,406 +2391,496 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EB3F5B-FA9C-4DB5-8A70-08CB26032661}">
-  <dimension ref="B1:L26"/>
+  <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="9" style="47"/>
-    <col min="5" max="5" width="13.375" style="47" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="47" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="47"/>
+    <col min="1" max="4" width="9" style="22"/>
+    <col min="5" max="5" width="13.375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="44" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="25">
         <v>45684</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="46"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="2:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="67"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="68">
+      <c r="B6" s="28">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="68">
+      <c r="B7" s="28">
         <v>2</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="44" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
     </row>
     <row r="8" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="68">
+      <c r="B8" s="28">
         <v>3</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="68">
+      <c r="B9" s="28">
         <v>4</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="28">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="28">
+        <v>6</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="43" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+    </row>
+    <row r="12" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="28">
+        <v>7</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47" t="s">
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="28">
+        <v>8</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="68">
-        <v>5</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="69" t="s">
+      <c r="G13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="28">
+        <v>9</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44" t="s">
+      <c r="H14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
-    </row>
-    <row r="11" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="68">
-        <v>6</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44" t="s">
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D20" s="10">
+        <v>3</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-    </row>
-    <row r="12" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="68">
-        <v>7</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="68">
-        <v>8</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-    </row>
-    <row r="14" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="68">
-        <v>9</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16" t="s">
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D19" s="16">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="F25" s="70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D26" s="10">
+        <v>3</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D20" s="16">
-        <v>3</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D22" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D24" s="16">
-        <v>1</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D25" s="16">
-        <v>2</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D26" s="16">
-        <v>3</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>110</v>
+      <c r="F26" s="70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C29" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C30" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C31" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.4">
+      <c r="C32" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C33" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C34" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C35" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C36" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C37" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C38" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C39" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2751,14 +2894,15 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\taskmanage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5878C753-6B00-4484-B420-F4D5FF770C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D941FC3-13D1-4725-BF67-07334515592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1785" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{CF4BF84E-3EB0-4DBD-8D50-3C88BC6C6D79}"/>
+    <workbookView xWindow="-23010" yWindow="3420" windowWidth="21600" windowHeight="12645" activeTab="4" xr2:uid="{CF4BF84E-3EB0-4DBD-8D50-3C88BC6C6D79}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="133">
   <si>
     <t>TBL_USER</t>
     <phoneticPr fontId="1"/>
@@ -636,6 +636,21 @@
       <t>テイスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT T.ID,SUBJECT, U.NAME AS POSTUSER_NAME, G.NAME AS GROUP_NAME</t>
+  </si>
+  <si>
+    <t>FROM TBL_TASK T</t>
+  </si>
+  <si>
+    <t>LEFT JOIN TBL_USER U ON U.ID = T.POSTUSER_ID</t>
+  </si>
+  <si>
+    <t>LEFT JOIN TBL_GROUP G ON G.ID = T.GROUP_ID</t>
+  </si>
+  <si>
+    <t>WHERE T.ID = 1 ORDER BY T.ID;</t>
   </si>
 </sst>
 </file>
@@ -1056,6 +1071,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1175,9 +1193,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,12 +1552,12 @@
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
@@ -1554,12 +1569,12 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
@@ -1571,12 +1586,12 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
@@ -1588,12 +1603,12 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
@@ -1605,12 +1620,12 @@
       <c r="D6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1644,16 +1659,16 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1668,16 +1683,16 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="46" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="13" t="s">
         <v>26</v>
       </c>
@@ -1693,17 +1708,17 @@
       <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="37"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="15" t="s">
@@ -1730,10 +1745,10 @@
       <c r="I5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="52"/>
+      <c r="K5" s="53"/>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17">
@@ -1756,8 +1771,8 @@
       <c r="I6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="17">
@@ -1778,8 +1793,8 @@
       <c r="I7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="17">
@@ -1800,8 +1815,8 @@
       <c r="I8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="17">
@@ -1820,8 +1835,8 @@
         <v>35</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="17">
@@ -1844,8 +1859,8 @@
       <c r="I10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C11" s="10" t="s">
@@ -1949,16 +1964,16 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
@@ -1973,16 +1988,16 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="21" t="s">
         <v>26</v>
       </c>
@@ -1998,17 +2013,17 @@
       <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="54"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
@@ -2035,10 +2050,10 @@
       <c r="I5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="69"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="28">
@@ -2063,8 +2078,8 @@
       <c r="I6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="28">
@@ -2085,8 +2100,8 @@
       <c r="I7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="28">
@@ -2105,8 +2120,8 @@
         <v>46</v>
       </c>
       <c r="I8" s="20"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="22" t="s">
@@ -2154,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59923F61-282C-42D0-84B2-319A1C4219A6}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2170,16 +2185,16 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
@@ -2194,16 +2209,16 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="21" t="s">
         <v>26</v>
       </c>
@@ -2219,17 +2234,17 @@
       <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="54"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="2:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
@@ -2256,10 +2271,10 @@
       <c r="I5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="69"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="28">
@@ -2284,8 +2299,8 @@
       <c r="I6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="28">
@@ -2310,8 +2325,8 @@
       <c r="I7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C9" s="22" t="s">
@@ -2391,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EB3F5B-FA9C-4DB5-8A70-08CB26032661}">
-  <dimension ref="B1:L39"/>
+  <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2409,16 +2424,16 @@
   <sheetData>
     <row r="1" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
@@ -2433,16 +2448,16 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="21" t="s">
         <v>26</v>
       </c>
@@ -2458,17 +2473,17 @@
       <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="54"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="2:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
@@ -2495,10 +2510,10 @@
       <c r="I5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="69"/>
+      <c r="K5" s="70"/>
     </row>
     <row r="6" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="28">
@@ -2523,8 +2538,8 @@
       <c r="I6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="28">
@@ -2545,8 +2560,8 @@
       <c r="I7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="28">
@@ -2567,8 +2582,8 @@
       <c r="I8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="28">
@@ -2591,8 +2606,8 @@
       <c r="I9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="22" t="s">
         <v>105</v>
       </c>
@@ -2614,8 +2629,8 @@
         <v>91</v>
       </c>
       <c r="I10" s="20"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="28">
@@ -2634,8 +2649,8 @@
         <v>91</v>
       </c>
       <c r="I11" s="20"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="28">
@@ -2658,8 +2673,8 @@
       <c r="I12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="22" t="s">
         <v>106</v>
       </c>
@@ -2685,8 +2700,8 @@
       <c r="I13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="28">
@@ -2709,8 +2724,8 @@
       <c r="I14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D16" s="10" t="s">
@@ -2719,7 +2734,7 @@
       <c r="E16" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="30" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2730,7 +2745,7 @@
       <c r="E17" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="30" t="s">
         <v>120</v>
       </c>
       <c r="G17" s="22" t="s">
@@ -2744,7 +2759,7 @@
       <c r="E18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="F18" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2755,7 +2770,7 @@
       <c r="E19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="30" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2766,7 +2781,7 @@
       <c r="E20" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="30" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2777,7 +2792,7 @@
       <c r="E22" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="70" t="s">
+      <c r="F22" s="30" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2788,7 +2803,7 @@
       <c r="E23" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="30" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2799,7 +2814,7 @@
       <c r="E24" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="30" t="s">
         <v>125</v>
       </c>
       <c r="G24" s="22" t="s">
@@ -2813,7 +2828,7 @@
       <c r="E25" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F25" s="30" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2824,7 +2839,7 @@
       <c r="E26" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="30" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2883,8 +2898,39 @@
         <v>63</v>
       </c>
     </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C41" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C42" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C43" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C44" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C45" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:K4"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
@@ -2894,12 +2940,6 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\taskmanage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D941FC3-13D1-4725-BF67-07334515592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD405AB-BF1E-487C-80A2-03293974CF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23010" yWindow="3420" windowWidth="21600" windowHeight="12645" activeTab="4" xr2:uid="{CF4BF84E-3EB0-4DBD-8D50-3C88BC6C6D79}"/>
+    <workbookView xWindow="3945" yWindow="2625" windowWidth="21600" windowHeight="12645" activeTab="4" xr2:uid="{CF4BF84E-3EB0-4DBD-8D50-3C88BC6C6D79}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -579,9 +579,6 @@
     <t>CREATE TABLE TBL_TASK (</t>
   </si>
   <si>
-    <t xml:space="preserve">    ID INT PRIMARY KEY AUTO_INCREMENT,</t>
-  </si>
-  <si>
     <t xml:space="preserve">    SUBJECT VARCHAR(100) NOT NULL,</t>
   </si>
   <si>
@@ -651,6 +648,10 @@
   </si>
   <si>
     <t>WHERE T.ID = 1 ORDER BY T.ID;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ID INT PRIMARY KEY AUTO_INCREMENT,</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2409,7 +2410,7 @@
   <dimension ref="B1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2735,7 +2736,7 @@
         <v>86</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.35">
@@ -2746,7 +2747,7 @@
         <v>95</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>96</v>
@@ -2760,7 +2761,7 @@
         <v>97</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
@@ -2771,7 +2772,7 @@
         <v>98</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.35">
@@ -2782,7 +2783,7 @@
         <v>99</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
@@ -2793,7 +2794,7 @@
         <v>89</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
@@ -2804,7 +2805,7 @@
         <v>101</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
@@ -2815,7 +2816,7 @@
         <v>102</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>96</v>
@@ -2829,7 +2830,7 @@
         <v>103</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
@@ -2840,7 +2841,7 @@
         <v>104</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.4">
@@ -2850,32 +2851,32 @@
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C30" s="22" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C31" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C32" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C34" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C35" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.4">
@@ -2885,12 +2886,12 @@
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C37" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C38" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.4">
@@ -2900,37 +2901,31 @@
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C41" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C42" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C43" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C44" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C45" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C4:K4"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
@@ -2940,6 +2935,12 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
